--- a/Code/Results/Cases/Case_0_245/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_245/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.814510783301597</v>
+        <v>9.084673430066717</v>
       </c>
       <c r="D2">
-        <v>2.509343413224426</v>
+        <v>4.848446813053727</v>
       </c>
       <c r="E2">
-        <v>5.756091491727029</v>
+        <v>11.51079637086398</v>
       </c>
       <c r="F2">
-        <v>27.95825054275955</v>
+        <v>28.30271294507854</v>
       </c>
       <c r="G2">
-        <v>2.034279357947471</v>
+        <v>3.6303306947679</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>21.0195578558382</v>
+        <v>25.24065257700906</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>4.671659193894552</v>
+        <v>8.980559138224811</v>
       </c>
       <c r="M2">
-        <v>29.74832222347865</v>
+        <v>23.53127622920516</v>
       </c>
       <c r="N2">
-        <v>19.40876344608725</v>
+        <v>17.38162619306493</v>
       </c>
       <c r="O2">
-        <v>22.00662010293496</v>
+        <v>24.88150095661491</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.891666190448726</v>
+        <v>9.128212910553495</v>
       </c>
       <c r="D3">
-        <v>2.565075782418644</v>
+        <v>4.863358258134007</v>
       </c>
       <c r="E3">
-        <v>5.956036260074708</v>
+        <v>11.58186531643598</v>
       </c>
       <c r="F3">
-        <v>26.39032354279895</v>
+        <v>28.04551728471385</v>
       </c>
       <c r="G3">
-        <v>2.042676120298731</v>
+        <v>3.633504299366391</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>20.06131078777971</v>
+        <v>25.15898211692503</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>4.796438984272709</v>
+        <v>9.023396058707156</v>
       </c>
       <c r="M3">
-        <v>27.7765323936478</v>
+        <v>22.82997654462756</v>
       </c>
       <c r="N3">
-        <v>18.58803592838462</v>
+        <v>17.10751983567498</v>
       </c>
       <c r="O3">
-        <v>20.91169823340248</v>
+        <v>24.75274205520819</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.943124581991413</v>
+        <v>9.15655344713956</v>
       </c>
       <c r="D4">
-        <v>2.59950375128638</v>
+        <v>4.872884476518452</v>
       </c>
       <c r="E4">
-        <v>6.082041486091523</v>
+        <v>11.627593229185</v>
       </c>
       <c r="F4">
-        <v>25.4085285874288</v>
+        <v>27.89593279868928</v>
       </c>
       <c r="G4">
-        <v>2.047973064388661</v>
+        <v>3.635556156253677</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>19.4730615024836</v>
+        <v>25.11637246226427</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>4.87473827680354</v>
+        <v>9.050939716598547</v>
       </c>
       <c r="M4">
-        <v>26.49235159521096</v>
+        <v>22.38875882112294</v>
       </c>
       <c r="N4">
-        <v>18.06834704173701</v>
+        <v>16.93897827465235</v>
       </c>
       <c r="O4">
-        <v>20.23362648674903</v>
+        <v>24.68104866438964</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.965071177800659</v>
+        <v>9.168506615005168</v>
       </c>
       <c r="D5">
-        <v>2.613602538942403</v>
+        <v>4.876860088995673</v>
       </c>
       <c r="E5">
-        <v>6.134216469947276</v>
+        <v>11.64675504714759</v>
       </c>
       <c r="F5">
-        <v>25.00406530182551</v>
+        <v>27.83713478905526</v>
       </c>
       <c r="G5">
-        <v>2.050168667257811</v>
+        <v>3.636418359645303</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>19.23366667693786</v>
+        <v>25.10091321589388</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>4.907087414718931</v>
+        <v>9.062477188343106</v>
       </c>
       <c r="M5">
-        <v>25.95045488785696</v>
+        <v>22.20653053259134</v>
       </c>
       <c r="N5">
-        <v>17.85288034313113</v>
+        <v>16.87031843293093</v>
       </c>
       <c r="O5">
-        <v>19.95618254631</v>
+        <v>24.65370662048793</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.968773012492403</v>
+        <v>9.170515842009566</v>
       </c>
       <c r="D6">
-        <v>2.615948273336079</v>
+        <v>4.877525902232974</v>
       </c>
       <c r="E6">
-        <v>6.142930403240516</v>
+        <v>11.64996874403341</v>
       </c>
       <c r="F6">
-        <v>24.93665464087005</v>
+        <v>27.82750356138311</v>
       </c>
       <c r="G6">
-        <v>2.050535526251261</v>
+        <v>3.636563104219912</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>19.19394408551015</v>
+        <v>25.09846147532916</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>4.912486140309205</v>
+        <v>9.06441192285372</v>
       </c>
       <c r="M6">
-        <v>25.85934812337713</v>
+        <v>22.17613240494601</v>
       </c>
       <c r="N6">
-        <v>17.81688818155512</v>
+        <v>16.8589212886262</v>
       </c>
       <c r="O6">
-        <v>19.91005609096753</v>
+        <v>24.64928022379915</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.943416669146568</v>
+        <v>9.156713015205508</v>
       </c>
       <c r="D7">
-        <v>2.599693591346215</v>
+        <v>4.872937713483981</v>
       </c>
       <c r="E7">
-        <v>6.082741771289125</v>
+        <v>11.62784951515557</v>
       </c>
       <c r="F7">
-        <v>25.40309093071152</v>
+        <v>27.89513100739396</v>
       </c>
       <c r="G7">
-        <v>2.048002523074714</v>
+        <v>3.635567678613226</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>19.46983122264978</v>
+        <v>25.11615625157468</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>4.87517273768248</v>
+        <v>9.051094045514303</v>
       </c>
       <c r="M7">
-        <v>26.48511875880562</v>
+        <v>22.38631072715762</v>
       </c>
       <c r="N7">
-        <v>18.0654557308</v>
+        <v>16.93805210445131</v>
       </c>
       <c r="O7">
-        <v>20.22988885279914</v>
+        <v>24.68067230786033</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.840234518668302</v>
+        <v>9.099352310302693</v>
       </c>
       <c r="D8">
-        <v>2.528527265568113</v>
+        <v>4.853511634911215</v>
       </c>
       <c r="E8">
-        <v>5.824367660409622</v>
+        <v>11.53486777227254</v>
       </c>
       <c r="F8">
-        <v>27.42181390268821</v>
+        <v>28.21234132545547</v>
       </c>
       <c r="G8">
-        <v>2.03714618464692</v>
+        <v>3.631403579262564</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>20.6892915168482</v>
+        <v>25.21093487580545</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>4.714345009612883</v>
+        <v>8.995072212149152</v>
       </c>
       <c r="M8">
-        <v>29.08363967075302</v>
+        <v>23.29181054609866</v>
       </c>
       <c r="N8">
-        <v>19.12919975576654</v>
+        <v>17.28721297163021</v>
       </c>
       <c r="O8">
-        <v>21.63047162634751</v>
+        <v>24.83559016500117</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.672815718581625</v>
+        <v>8.999617696864897</v>
       </c>
       <c r="D9">
-        <v>2.389790098450906</v>
+        <v>4.818337261983947</v>
       </c>
       <c r="E9">
-        <v>5.342873916052928</v>
+        <v>11.36905700313125</v>
       </c>
       <c r="F9">
-        <v>31.2154843289596</v>
+        <v>28.89752327721128</v>
       </c>
       <c r="G9">
-        <v>2.016903594928867</v>
+        <v>3.624052859998384</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>23.07113173286942</v>
+        <v>25.45606075038796</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>4.411440633091275</v>
+        <v>8.895019166101859</v>
       </c>
       <c r="M9">
-        <v>33.60106978721257</v>
+        <v>24.97361131821912</v>
       </c>
       <c r="N9">
-        <v>21.08002104389061</v>
+        <v>17.96647438990222</v>
       </c>
       <c r="O9">
-        <v>24.31974922652478</v>
+        <v>25.19672671084662</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.574988559966404</v>
+        <v>8.93411195055632</v>
       </c>
       <c r="D10">
-        <v>2.287077921274687</v>
+        <v>4.794246480330957</v>
       </c>
       <c r="E10">
-        <v>5.003885907009733</v>
+        <v>11.25721473150875</v>
       </c>
       <c r="F10">
-        <v>33.8997264248096</v>
+        <v>29.43511762592122</v>
       </c>
       <c r="G10">
-        <v>2.002556215153469</v>
+        <v>3.619143327436044</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>24.80492538175327</v>
+        <v>25.67140664495036</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.195164993224305</v>
+        <v>8.827422409977096</v>
       </c>
       <c r="M10">
-        <v>36.57468828297139</v>
+        <v>26.14041558990472</v>
       </c>
       <c r="N10">
-        <v>22.41971118328118</v>
+        <v>18.45760202179382</v>
       </c>
       <c r="O10">
-        <v>26.24999476157527</v>
+        <v>25.49534310028722</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.53693245237028</v>
+        <v>8.905998537805065</v>
       </c>
       <c r="D11">
-        <v>2.239858247324691</v>
+        <v>4.783661241954138</v>
       </c>
       <c r="E11">
-        <v>4.85281858011013</v>
+        <v>11.20848116797336</v>
       </c>
       <c r="F11">
-        <v>35.19305833599077</v>
+        <v>29.68612854299129</v>
       </c>
       <c r="G11">
-        <v>1.99611517032931</v>
+        <v>3.617015232887456</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>25.58904978558221</v>
+        <v>25.77679025085013</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>4.097808840206515</v>
+        <v>8.79794062486928</v>
       </c>
       <c r="M11">
-        <v>37.85416468833697</v>
+        <v>26.65420176273294</v>
       </c>
       <c r="N11">
-        <v>23.00710354353157</v>
+        <v>18.67838153040469</v>
       </c>
       <c r="O11">
-        <v>27.1487516960585</v>
+        <v>25.63800795968883</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.523540625122022</v>
+        <v>8.895595193160275</v>
       </c>
       <c r="D12">
-        <v>2.221875682018141</v>
+        <v>4.779706172462843</v>
       </c>
       <c r="E12">
-        <v>4.79606796348153</v>
+        <v>11.19033384507947</v>
       </c>
       <c r="F12">
-        <v>35.67731394994839</v>
+        <v>29.78202314867505</v>
       </c>
       <c r="G12">
-        <v>1.993685837616649</v>
+        <v>3.616224422143013</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>25.88529419433019</v>
+        <v>25.81773993398554</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4.061060652181782</v>
+        <v>8.786957970798802</v>
       </c>
       <c r="M12">
-        <v>38.32828493029368</v>
+        <v>26.84616462390811</v>
       </c>
       <c r="N12">
-        <v>23.22625347809935</v>
+        <v>18.76153259206387</v>
       </c>
       <c r="O12">
-        <v>27.52966465539237</v>
+        <v>25.69297426175001</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.52637790235799</v>
+        <v>8.897824946218359</v>
       </c>
       <c r="D13">
-        <v>2.225753582840084</v>
+        <v>4.780555602206443</v>
       </c>
       <c r="E13">
-        <v>4.808269830427995</v>
+        <v>11.19422856137279</v>
       </c>
       <c r="F13">
-        <v>35.57326229194974</v>
+        <v>29.76133445701813</v>
       </c>
       <c r="G13">
-        <v>1.994208647933936</v>
+        <v>3.616394069289851</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>25.82152303847673</v>
+        <v>25.8088746955152</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>4.068970261685587</v>
+        <v>8.789315226129014</v>
       </c>
       <c r="M13">
-        <v>38.22663437254371</v>
+        <v>26.80493973442766</v>
       </c>
       <c r="N13">
-        <v>23.17920318466659</v>
+        <v>18.74364582987728</v>
       </c>
       <c r="O13">
-        <v>27.44782000435743</v>
+        <v>25.68109502075336</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.535809712608161</v>
+        <v>8.905137785031297</v>
       </c>
       <c r="D14">
-        <v>2.238381030844302</v>
+        <v>4.783334789579606</v>
       </c>
       <c r="E14">
-        <v>4.848140498556691</v>
+        <v>11.20698203100749</v>
       </c>
       <c r="F14">
-        <v>35.23300744931129</v>
+        <v>29.69400146873337</v>
       </c>
       <c r="G14">
-        <v>1.995915127888399</v>
+        <v>3.616949871229914</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>25.61343570951659</v>
+        <v>25.78013844382697</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>4.09478334888151</v>
+        <v>8.797033443899098</v>
       </c>
       <c r="M14">
-        <v>37.8933782233894</v>
+        <v>26.67004752175029</v>
       </c>
       <c r="N14">
-        <v>23.02519950088823</v>
+        <v>18.68523191653113</v>
       </c>
       <c r="O14">
-        <v>27.18017633153762</v>
+        <v>25.64251141708532</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.541722586638349</v>
+        <v>8.90964871010622</v>
       </c>
       <c r="D15">
-        <v>2.246101531650702</v>
+        <v>4.78504405488974</v>
       </c>
       <c r="E15">
-        <v>4.872621970254134</v>
+        <v>11.21483384438213</v>
       </c>
       <c r="F15">
-        <v>35.02388093928512</v>
+        <v>29.65286517103117</v>
       </c>
       <c r="G15">
-        <v>1.996961585326437</v>
+        <v>3.617292273694697</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>25.48588694398289</v>
+        <v>25.7626717658249</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>4.110609117542939</v>
+        <v>8.801784678979942</v>
       </c>
       <c r="M15">
-        <v>37.6879005410499</v>
+        <v>26.58707972126619</v>
       </c>
       <c r="N15">
-        <v>22.93043730672717</v>
+        <v>18.64939052667957</v>
       </c>
       <c r="O15">
-        <v>27.01567205115511</v>
+        <v>25.61899936065226</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.577613014183803</v>
+        <v>8.935983162901291</v>
       </c>
       <c r="D16">
-        <v>2.290151360076525</v>
+        <v>4.794945736165251</v>
       </c>
       <c r="E16">
-        <v>5.013821853198469</v>
+        <v>11.26044261748583</v>
       </c>
       <c r="F16">
-        <v>33.81442419879681</v>
+        <v>29.41883605379702</v>
       </c>
       <c r="G16">
-        <v>2.002978662769817</v>
+        <v>3.619284514474404</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>24.75358516860074</v>
+        <v>25.6646669163928</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.201545691365541</v>
+        <v>8.829374556641092</v>
       </c>
       <c r="M16">
-        <v>36.48960965946904</v>
+        <v>26.10648299088983</v>
       </c>
       <c r="N16">
-        <v>22.38086997582912</v>
+        <v>18.44311408259867</v>
       </c>
       <c r="O16">
-        <v>26.19309874524883</v>
+        <v>25.48615363136527</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.601344505170943</v>
+        <v>8.95257033915802</v>
       </c>
       <c r="D17">
-        <v>2.317027146742619</v>
+        <v>4.801115532836915</v>
       </c>
       <c r="E17">
-        <v>5.101248104490141</v>
+        <v>11.28897034097036</v>
       </c>
       <c r="F17">
-        <v>33.12227154356619</v>
+        <v>29.27685954176757</v>
       </c>
       <c r="G17">
-        <v>2.006690138172337</v>
+        <v>3.620533592028406</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>24.30313061143833</v>
+        <v>25.60642857376978</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.257575703214688</v>
+        <v>8.846624240410874</v>
       </c>
       <c r="M17">
-        <v>35.73583694629482</v>
+        <v>25.80718494503652</v>
       </c>
       <c r="N17">
-        <v>22.03799503169707</v>
+        <v>18.31584094486455</v>
       </c>
       <c r="O17">
-        <v>25.69325694794492</v>
+        <v>25.40637756135044</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.615594909773903</v>
+        <v>8.96226947436598</v>
       </c>
       <c r="D18">
-        <v>2.332440763373421</v>
+        <v>4.804699443551535</v>
       </c>
       <c r="E18">
-        <v>5.151828334185311</v>
+        <v>11.30558061720516</v>
       </c>
       <c r="F18">
-        <v>32.72315272839163</v>
+        <v>29.19581139567238</v>
       </c>
       <c r="G18">
-        <v>2.008833110755858</v>
+        <v>3.621261942638517</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>24.0436075302198</v>
+        <v>25.57363156231819</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.289901430008419</v>
+        <v>8.856665237422202</v>
       </c>
       <c r="M18">
-        <v>35.29538431338269</v>
+        <v>25.63344463259532</v>
       </c>
       <c r="N18">
-        <v>21.83871318018504</v>
+        <v>18.24239282978471</v>
       </c>
       <c r="O18">
-        <v>25.40473709301215</v>
+        <v>25.36113713742486</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.620520349468115</v>
+        <v>8.9655806733848</v>
       </c>
       <c r="D19">
-        <v>2.337652751940347</v>
+        <v>4.805918953695191</v>
       </c>
       <c r="E19">
-        <v>5.169004592008757</v>
+        <v>11.31123928469243</v>
       </c>
       <c r="F19">
-        <v>32.58761222612511</v>
+        <v>29.1684777722669</v>
       </c>
       <c r="G19">
-        <v>2.009560171912501</v>
+        <v>3.621510255052073</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>23.95566471974716</v>
+        <v>25.56264800482431</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.300864178909436</v>
+        <v>8.860085487807952</v>
       </c>
       <c r="M19">
-        <v>35.14506494679456</v>
+        <v>25.57435063556224</v>
       </c>
       <c r="N19">
-        <v>21.77088822186603</v>
+        <v>18.21748497301982</v>
       </c>
       <c r="O19">
-        <v>25.30687456476355</v>
+        <v>25.34593137857252</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.598755438868393</v>
+        <v>8.950788186808897</v>
       </c>
       <c r="D20">
-        <v>2.314171000261246</v>
+        <v>4.800455106739647</v>
       </c>
       <c r="E20">
-        <v>5.091910899344712</v>
+        <v>11.28591263132513</v>
       </c>
       <c r="F20">
-        <v>33.19594666526041</v>
+        <v>29.2919103625987</v>
       </c>
       <c r="G20">
-        <v>2.006294211242891</v>
+        <v>3.620399600133216</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>24.35112750433383</v>
+        <v>25.61255585012195</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.251601197675843</v>
+        <v>8.844775627801823</v>
       </c>
       <c r="M20">
-        <v>35.81679072550735</v>
+        <v>25.83921165415883</v>
       </c>
       <c r="N20">
-        <v>22.07470971166433</v>
+        <v>18.32941518600047</v>
       </c>
       <c r="O20">
-        <v>25.74657219668012</v>
+        <v>25.41480341544047</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.533010921547761</v>
+        <v>8.902983241122026</v>
       </c>
       <c r="D21">
-        <v>2.234675056475681</v>
+        <v>4.78251703083548</v>
       </c>
       <c r="E21">
-        <v>4.836417091491504</v>
+        <v>11.20322770561343</v>
       </c>
       <c r="F21">
-        <v>35.33309625902363</v>
+        <v>29.71375663507915</v>
       </c>
       <c r="G21">
-        <v>1.995413650496077</v>
+        <v>3.616786210891248</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>25.67457457678989</v>
+        <v>25.78855086738859</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>4.087198452654524</v>
+        <v>8.794761498871368</v>
       </c>
       <c r="M21">
-        <v>37.99154442650951</v>
+        <v>26.70974024480306</v>
       </c>
       <c r="N21">
-        <v>23.07052400035835</v>
+        <v>18.70240237643776</v>
       </c>
       <c r="O21">
-        <v>27.25890712953378</v>
+        <v>25.65381910539384</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.496032901995295</v>
+        <v>8.873154097856258</v>
       </c>
       <c r="D22">
-        <v>2.182111596490276</v>
+        <v>4.771104118602356</v>
       </c>
       <c r="E22">
-        <v>4.672098859705453</v>
+        <v>11.15097728498639</v>
       </c>
       <c r="F22">
-        <v>36.73256761511295</v>
+        <v>29.99432595585874</v>
       </c>
       <c r="G22">
-        <v>1.988358021258483</v>
+        <v>3.614512349855745</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>26.56572250518501</v>
+        <v>25.90964173994733</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>3.980426583031835</v>
+        <v>8.763131625288878</v>
       </c>
       <c r="M22">
-        <v>39.35238580062613</v>
+        <v>27.26348539453592</v>
       </c>
       <c r="N22">
-        <v>23.70217472782459</v>
+        <v>18.94349669364409</v>
       </c>
       <c r="O22">
-        <v>28.35965862266668</v>
+        <v>25.81550220148414</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.515187902512652</v>
+        <v>8.888944996140378</v>
       </c>
       <c r="D23">
-        <v>2.210232294404315</v>
+        <v>4.777167117680089</v>
       </c>
       <c r="E23">
-        <v>4.759551635696006</v>
+        <v>11.1787010510516</v>
       </c>
       <c r="F23">
-        <v>35.98849757156373</v>
+        <v>29.84416413475932</v>
       </c>
       <c r="G23">
-        <v>1.992119589619131</v>
+        <v>3.61571795627452</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>26.076389062522</v>
+        <v>25.84446652150768</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>4.037361465933972</v>
+        <v>8.77991664990367</v>
       </c>
       <c r="M23">
-        <v>38.63156408711566</v>
+        <v>26.96937776498636</v>
       </c>
       <c r="N23">
-        <v>23.3668366649369</v>
+        <v>18.81508842305514</v>
       </c>
       <c r="O23">
-        <v>27.77442924334542</v>
+        <v>25.72872151920502</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.599924072401734</v>
+        <v>8.951593390345449</v>
       </c>
       <c r="D24">
-        <v>2.315462379056706</v>
+        <v>4.800753570666223</v>
       </c>
       <c r="E24">
-        <v>5.096131260356023</v>
+        <v>11.28729436977545</v>
       </c>
       <c r="F24">
-        <v>33.16264606425649</v>
+        <v>29.28510408562004</v>
       </c>
       <c r="G24">
-        <v>2.006473180974005</v>
+        <v>3.620460145967725</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>24.32942982181303</v>
+        <v>25.60978357299923</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.254301916451366</v>
+        <v>8.845610999472575</v>
       </c>
       <c r="M24">
-        <v>35.78021364325973</v>
+        <v>25.82473756849567</v>
       </c>
       <c r="N24">
-        <v>22.05811771916358</v>
+        <v>18.32327912899035</v>
       </c>
       <c r="O24">
-        <v>25.7224719662699</v>
+        <v>25.41099214046183</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.713992277140077</v>
+        <v>9.025234056847825</v>
       </c>
       <c r="D25">
-        <v>2.427358955314899</v>
+        <v>4.827543176061017</v>
       </c>
       <c r="E25">
-        <v>5.470504649139178</v>
+        <v>11.41215393148494</v>
       </c>
       <c r="F25">
-        <v>30.20839222985101</v>
+        <v>28.70583468650284</v>
       </c>
       <c r="G25">
-        <v>2.022278791178444</v>
+        <v>3.625954771963517</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>22.42905940215455</v>
+        <v>25.38348382966527</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>4.492180083000787</v>
+        <v>8.921043200693182</v>
       </c>
       <c r="M25">
-        <v>32.44017426978043</v>
+        <v>24.52995853255413</v>
       </c>
       <c r="N25">
-        <v>20.56801930844714</v>
+        <v>17.78378384659649</v>
       </c>
       <c r="O25">
-        <v>23.59969139460944</v>
+        <v>25.0930518843957</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_245/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_245/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.084673430066717</v>
+        <v>4.814510783301359</v>
       </c>
       <c r="D2">
-        <v>4.848446813053727</v>
+        <v>2.509343413224492</v>
       </c>
       <c r="E2">
-        <v>11.51079637086398</v>
+        <v>5.756091491727028</v>
       </c>
       <c r="F2">
-        <v>28.30271294507854</v>
+        <v>27.95825054275953</v>
       </c>
       <c r="G2">
-        <v>3.6303306947679</v>
+        <v>2.034279357947605</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25.24065257700906</v>
+        <v>21.01955785583816</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.980559138224811</v>
+        <v>4.671659193894586</v>
       </c>
       <c r="M2">
-        <v>23.53127622920516</v>
+        <v>29.74832222347867</v>
       </c>
       <c r="N2">
-        <v>17.38162619306493</v>
+        <v>19.40876344608725</v>
       </c>
       <c r="O2">
-        <v>24.88150095661491</v>
+        <v>22.00662010293495</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.128212910553495</v>
+        <v>4.89166619044884</v>
       </c>
       <c r="D3">
-        <v>4.863358258134007</v>
+        <v>2.565075782418578</v>
       </c>
       <c r="E3">
-        <v>11.58186531643598</v>
+        <v>5.956036260074706</v>
       </c>
       <c r="F3">
-        <v>28.04551728471385</v>
+        <v>26.39032354279897</v>
       </c>
       <c r="G3">
-        <v>3.633504299366391</v>
+        <v>2.042676120298865</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.15898211692503</v>
+        <v>20.06131078777972</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.023396058707156</v>
+        <v>4.796438984272642</v>
       </c>
       <c r="M3">
-        <v>22.82997654462756</v>
+        <v>27.7765323936478</v>
       </c>
       <c r="N3">
-        <v>17.10751983567498</v>
+        <v>18.58803592838467</v>
       </c>
       <c r="O3">
-        <v>24.75274205520819</v>
+        <v>20.91169823340248</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.15655344713956</v>
+        <v>4.943124581991404</v>
       </c>
       <c r="D4">
-        <v>4.872884476518452</v>
+        <v>2.599503751286378</v>
       </c>
       <c r="E4">
-        <v>11.627593229185</v>
+        <v>6.082041486091521</v>
       </c>
       <c r="F4">
-        <v>27.89593279868928</v>
+        <v>25.40852858742884</v>
       </c>
       <c r="G4">
-        <v>3.635556156253677</v>
+        <v>2.047973064388793</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>25.11637246226427</v>
+        <v>19.47306150248363</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.050939716598547</v>
+        <v>4.87473827680354</v>
       </c>
       <c r="M4">
-        <v>22.38875882112294</v>
+        <v>26.49235159521092</v>
       </c>
       <c r="N4">
-        <v>16.93897827465235</v>
+        <v>18.06834704173701</v>
       </c>
       <c r="O4">
-        <v>24.68104866438964</v>
+        <v>20.23362648674908</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.168506615005168</v>
+        <v>4.965071177800649</v>
       </c>
       <c r="D5">
-        <v>4.876860088995673</v>
+        <v>2.613602538942404</v>
       </c>
       <c r="E5">
-        <v>11.64675504714759</v>
+        <v>6.134216469947276</v>
       </c>
       <c r="F5">
-        <v>27.83713478905526</v>
+        <v>25.00406530182556</v>
       </c>
       <c r="G5">
-        <v>3.636418359645303</v>
+        <v>2.050168667258077</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>25.10091321589388</v>
+        <v>19.2336666769379</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.062477188343106</v>
+        <v>4.907087414718929</v>
       </c>
       <c r="M5">
-        <v>22.20653053259134</v>
+        <v>25.95045488785694</v>
       </c>
       <c r="N5">
-        <v>16.87031843293093</v>
+        <v>17.85288034313118</v>
       </c>
       <c r="O5">
-        <v>24.65370662048793</v>
+        <v>19.95618254631005</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.170515842009566</v>
+        <v>4.968773012492409</v>
       </c>
       <c r="D6">
-        <v>4.877525902232974</v>
+        <v>2.615948273336013</v>
       </c>
       <c r="E6">
-        <v>11.64996874403341</v>
+        <v>6.142930403240515</v>
       </c>
       <c r="F6">
-        <v>27.82750356138311</v>
+        <v>24.93665464087005</v>
       </c>
       <c r="G6">
-        <v>3.636563104219912</v>
+        <v>2.050535526251125</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>25.09846147532916</v>
+        <v>19.19394408551013</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.06441192285372</v>
+        <v>4.912486140309172</v>
       </c>
       <c r="M6">
-        <v>22.17613240494601</v>
+        <v>25.85934812337717</v>
       </c>
       <c r="N6">
-        <v>16.8589212886262</v>
+        <v>17.81688818155512</v>
       </c>
       <c r="O6">
-        <v>24.64928022379915</v>
+        <v>19.91005609096751</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.156713015205508</v>
+        <v>4.943416669146335</v>
       </c>
       <c r="D7">
-        <v>4.872937713483981</v>
+        <v>2.59969359134635</v>
       </c>
       <c r="E7">
-        <v>11.62784951515557</v>
+        <v>6.082741771289193</v>
       </c>
       <c r="F7">
-        <v>27.89513100739396</v>
+        <v>25.40309093071145</v>
       </c>
       <c r="G7">
-        <v>3.635567678613226</v>
+        <v>2.048002523074581</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>25.11615625157468</v>
+        <v>19.46983122264971</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.051094045514303</v>
+        <v>4.875172737682513</v>
       </c>
       <c r="M7">
-        <v>22.38631072715762</v>
+        <v>26.48511875880564</v>
       </c>
       <c r="N7">
-        <v>16.93805210445131</v>
+        <v>18.06545573079999</v>
       </c>
       <c r="O7">
-        <v>24.68067230786033</v>
+        <v>20.2298888527991</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.099352310302693</v>
+        <v>4.840234518668424</v>
       </c>
       <c r="D8">
-        <v>4.853511634911215</v>
+        <v>2.528527265568247</v>
       </c>
       <c r="E8">
-        <v>11.53486777227254</v>
+        <v>5.824367660409621</v>
       </c>
       <c r="F8">
-        <v>28.21234132545547</v>
+        <v>27.42181390268819</v>
       </c>
       <c r="G8">
-        <v>3.631403579262564</v>
+        <v>2.037146184646923</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.21093487580545</v>
+        <v>20.6892915168482</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.995072212149152</v>
+        <v>4.714345009612848</v>
       </c>
       <c r="M8">
-        <v>23.29181054609866</v>
+        <v>29.08363967075303</v>
       </c>
       <c r="N8">
-        <v>17.28721297163021</v>
+        <v>19.12919975576656</v>
       </c>
       <c r="O8">
-        <v>24.83559016500117</v>
+        <v>21.6304716263475</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.999617696864897</v>
+        <v>4.672815718581538</v>
       </c>
       <c r="D9">
-        <v>4.818337261983947</v>
+        <v>2.38979009845104</v>
       </c>
       <c r="E9">
-        <v>11.36905700313125</v>
+        <v>5.342873916052929</v>
       </c>
       <c r="F9">
-        <v>28.89752327721128</v>
+        <v>31.21548432895963</v>
       </c>
       <c r="G9">
-        <v>3.624052859998384</v>
+        <v>2.016903594928604</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>25.45606075038796</v>
+        <v>23.07113173286945</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.895019166101859</v>
+        <v>4.411440633091274</v>
       </c>
       <c r="M9">
-        <v>24.97361131821912</v>
+        <v>33.60106978721259</v>
       </c>
       <c r="N9">
-        <v>17.96647438990222</v>
+        <v>21.08002104389061</v>
       </c>
       <c r="O9">
-        <v>25.19672671084662</v>
+        <v>24.31974922652481</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.93411195055632</v>
+        <v>4.574988559966283</v>
       </c>
       <c r="D10">
-        <v>4.794246480330957</v>
+        <v>2.287077921274821</v>
       </c>
       <c r="E10">
-        <v>11.25721473150875</v>
+        <v>5.003885907009735</v>
       </c>
       <c r="F10">
-        <v>29.43511762592122</v>
+        <v>33.89972642480961</v>
       </c>
       <c r="G10">
-        <v>3.619143327436044</v>
+        <v>2.002556215153604</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>25.67140664495036</v>
+        <v>24.80492538175331</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.827422409977096</v>
+        <v>4.195164993224337</v>
       </c>
       <c r="M10">
-        <v>26.14041558990472</v>
+        <v>36.57468828297139</v>
       </c>
       <c r="N10">
-        <v>18.45760202179382</v>
+        <v>22.4197111832812</v>
       </c>
       <c r="O10">
-        <v>25.49534310028722</v>
+        <v>26.2499947615753</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.905998537805065</v>
+        <v>4.536932452370279</v>
       </c>
       <c r="D11">
-        <v>4.783661241954138</v>
+        <v>2.239858247324759</v>
       </c>
       <c r="E11">
-        <v>11.20848116797336</v>
+        <v>4.852818580109999</v>
       </c>
       <c r="F11">
-        <v>29.68612854299129</v>
+        <v>35.19305833599073</v>
       </c>
       <c r="G11">
-        <v>3.617015232887456</v>
+        <v>1.996115170329442</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>25.77679025085013</v>
+        <v>25.58904978558217</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.79794062486928</v>
+        <v>4.097808840206381</v>
       </c>
       <c r="M11">
-        <v>26.65420176273294</v>
+        <v>37.85416468833696</v>
       </c>
       <c r="N11">
-        <v>18.67838153040469</v>
+        <v>23.00710354353156</v>
       </c>
       <c r="O11">
-        <v>25.63800795968883</v>
+        <v>27.14875169605845</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.895595193160275</v>
+        <v>4.523540625122012</v>
       </c>
       <c r="D12">
-        <v>4.779706172462843</v>
+        <v>2.221875682018008</v>
       </c>
       <c r="E12">
-        <v>11.19033384507947</v>
+        <v>4.79606796348153</v>
       </c>
       <c r="F12">
-        <v>29.78202314867505</v>
+        <v>35.67731394994841</v>
       </c>
       <c r="G12">
-        <v>3.616224422143013</v>
+        <v>1.993685837616648</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>25.81773993398554</v>
+        <v>25.88529419433016</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.786957970798802</v>
+        <v>4.061060652181816</v>
       </c>
       <c r="M12">
-        <v>26.84616462390811</v>
+        <v>38.32828493029368</v>
       </c>
       <c r="N12">
-        <v>18.76153259206387</v>
+        <v>23.22625347809933</v>
       </c>
       <c r="O12">
-        <v>25.69297426175001</v>
+        <v>27.52966465539239</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.897824946218359</v>
+        <v>4.526377902357775</v>
       </c>
       <c r="D13">
-        <v>4.780555602206443</v>
+        <v>2.22575358284015</v>
       </c>
       <c r="E13">
-        <v>11.19422856137279</v>
+        <v>4.808269830427935</v>
       </c>
       <c r="F13">
-        <v>29.76133445701813</v>
+        <v>35.57326229194973</v>
       </c>
       <c r="G13">
-        <v>3.616394069289851</v>
+        <v>1.994208647933936</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>25.8088746955152</v>
+        <v>25.82152303847678</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.789315226129014</v>
+        <v>4.068970261685418</v>
       </c>
       <c r="M13">
-        <v>26.80493973442766</v>
+        <v>38.22663437254369</v>
       </c>
       <c r="N13">
-        <v>18.74364582987728</v>
+        <v>23.17920318466652</v>
       </c>
       <c r="O13">
-        <v>25.68109502075336</v>
+        <v>27.44782000435741</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.905137785031297</v>
+        <v>4.535809712608171</v>
       </c>
       <c r="D14">
-        <v>4.783334789579606</v>
+        <v>2.238381030844436</v>
       </c>
       <c r="E14">
-        <v>11.20698203100749</v>
+        <v>4.848140498556755</v>
       </c>
       <c r="F14">
-        <v>29.69400146873337</v>
+        <v>35.2330074493113</v>
       </c>
       <c r="G14">
-        <v>3.616949871229914</v>
+        <v>1.995915127888402</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>25.78013844382697</v>
+        <v>25.61343570951661</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.797033443899098</v>
+        <v>4.094783348881577</v>
       </c>
       <c r="M14">
-        <v>26.67004752175029</v>
+        <v>37.89337822338939</v>
       </c>
       <c r="N14">
-        <v>18.68523191653113</v>
+        <v>23.02519950088823</v>
       </c>
       <c r="O14">
-        <v>25.64251141708532</v>
+        <v>27.18017633153761</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.90964871010622</v>
+        <v>4.541722586638457</v>
       </c>
       <c r="D15">
-        <v>4.78504405488974</v>
+        <v>2.246101531650702</v>
       </c>
       <c r="E15">
-        <v>11.21483384438213</v>
+        <v>4.872621970254201</v>
       </c>
       <c r="F15">
-        <v>29.65286517103117</v>
+        <v>35.02388093928514</v>
       </c>
       <c r="G15">
-        <v>3.617292273694697</v>
+        <v>1.996961585326173</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>25.7626717658249</v>
+        <v>25.48588694398288</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.801784678979942</v>
+        <v>4.110609117542972</v>
       </c>
       <c r="M15">
-        <v>26.58707972126619</v>
+        <v>37.68790054104988</v>
       </c>
       <c r="N15">
-        <v>18.64939052667957</v>
+        <v>22.93043730672714</v>
       </c>
       <c r="O15">
-        <v>25.61899936065226</v>
+        <v>27.01567205115514</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.935983162901291</v>
+        <v>4.577613014183822</v>
       </c>
       <c r="D16">
-        <v>4.794945736165251</v>
+        <v>2.290151360076458</v>
       </c>
       <c r="E16">
-        <v>11.26044261748583</v>
+        <v>5.013821853198535</v>
       </c>
       <c r="F16">
-        <v>29.41883605379702</v>
+        <v>33.81442419879694</v>
       </c>
       <c r="G16">
-        <v>3.619284514474404</v>
+        <v>2.002978662769817</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>25.6646669163928</v>
+        <v>24.75358516860072</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.829374556641092</v>
+        <v>4.201545691365609</v>
       </c>
       <c r="M16">
-        <v>26.10648299088983</v>
+        <v>36.48960965946913</v>
       </c>
       <c r="N16">
-        <v>18.44311408259867</v>
+        <v>22.3808699758291</v>
       </c>
       <c r="O16">
-        <v>25.48615363136527</v>
+        <v>26.19309874524883</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.95257033915802</v>
+        <v>4.601344505170821</v>
       </c>
       <c r="D17">
-        <v>4.801115532836915</v>
+        <v>2.317027146742619</v>
       </c>
       <c r="E17">
-        <v>11.28897034097036</v>
+        <v>5.101248104490202</v>
       </c>
       <c r="F17">
-        <v>29.27685954176757</v>
+        <v>33.12227154356621</v>
       </c>
       <c r="G17">
-        <v>3.620533592028406</v>
+        <v>2.006690138172471</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>25.60642857376978</v>
+        <v>24.3031306114383</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.846624240410874</v>
+        <v>4.257575703214687</v>
       </c>
       <c r="M17">
-        <v>25.80718494503652</v>
+        <v>35.73583694629489</v>
       </c>
       <c r="N17">
-        <v>18.31584094486455</v>
+        <v>22.03799503169708</v>
       </c>
       <c r="O17">
-        <v>25.40637756135044</v>
+        <v>25.69325694794491</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.96226947436598</v>
+        <v>4.615594909773785</v>
       </c>
       <c r="D18">
-        <v>4.804699443551535</v>
+        <v>2.332440763373555</v>
       </c>
       <c r="E18">
-        <v>11.30558061720516</v>
+        <v>5.151828334185173</v>
       </c>
       <c r="F18">
-        <v>29.19581139567238</v>
+        <v>32.72315272839157</v>
       </c>
       <c r="G18">
-        <v>3.621261942638517</v>
+        <v>2.008833110755722</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>25.57363156231819</v>
+        <v>24.04360753021979</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.856665237422202</v>
+        <v>4.289901430008387</v>
       </c>
       <c r="M18">
-        <v>25.63344463259532</v>
+        <v>35.29538431338261</v>
       </c>
       <c r="N18">
-        <v>18.24239282978471</v>
+        <v>21.83871318018505</v>
       </c>
       <c r="O18">
-        <v>25.36113713742486</v>
+        <v>25.40473709301214</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.9655806733848</v>
+        <v>4.620520349468238</v>
       </c>
       <c r="D19">
-        <v>4.805918953695191</v>
+        <v>2.337652751940482</v>
       </c>
       <c r="E19">
-        <v>11.31123928469243</v>
+        <v>5.169004592008957</v>
       </c>
       <c r="F19">
-        <v>29.1684777722669</v>
+        <v>32.58761222612516</v>
       </c>
       <c r="G19">
-        <v>3.621510255052073</v>
+        <v>2.009560171912372</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25.56264800482431</v>
+        <v>23.95566471974718</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.860085487807952</v>
+        <v>4.30086417890957</v>
       </c>
       <c r="M19">
-        <v>25.57435063556224</v>
+        <v>35.14506494679461</v>
       </c>
       <c r="N19">
-        <v>18.21748497301982</v>
+        <v>21.77088822186605</v>
       </c>
       <c r="O19">
-        <v>25.34593137857252</v>
+        <v>25.30687456476358</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.950788186808897</v>
+        <v>4.598755438868713</v>
       </c>
       <c r="D20">
-        <v>4.800455106739647</v>
+        <v>2.314171000261246</v>
       </c>
       <c r="E20">
-        <v>11.28591263132513</v>
+        <v>5.091910899344909</v>
       </c>
       <c r="F20">
-        <v>29.2919103625987</v>
+        <v>33.19594666526043</v>
       </c>
       <c r="G20">
-        <v>3.620399600133216</v>
+        <v>2.00629421124289</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25.61255585012195</v>
+        <v>24.35112750433385</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.844775627801823</v>
+        <v>4.251601197675843</v>
       </c>
       <c r="M20">
-        <v>25.83921165415883</v>
+        <v>35.81679072550734</v>
       </c>
       <c r="N20">
-        <v>18.32941518600047</v>
+        <v>22.07470971166432</v>
       </c>
       <c r="O20">
-        <v>25.41480341544047</v>
+        <v>25.74657219668012</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.902983241122026</v>
+        <v>4.533010921547957</v>
       </c>
       <c r="D21">
-        <v>4.78251703083548</v>
+        <v>2.234675056475682</v>
       </c>
       <c r="E21">
-        <v>11.20322770561343</v>
+        <v>4.836417091491568</v>
       </c>
       <c r="F21">
-        <v>29.71375663507915</v>
+        <v>35.33309625902363</v>
       </c>
       <c r="G21">
-        <v>3.616786210891248</v>
+        <v>1.995413650495943</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>25.78855086738859</v>
+        <v>25.67457457678987</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.794761498871368</v>
+        <v>4.087198452654558</v>
       </c>
       <c r="M21">
-        <v>26.70974024480306</v>
+        <v>37.99154442650948</v>
       </c>
       <c r="N21">
-        <v>18.70240237643776</v>
+        <v>23.07052400035834</v>
       </c>
       <c r="O21">
-        <v>25.65381910539384</v>
+        <v>27.25890712953378</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.873154097856258</v>
+        <v>4.496032901995306</v>
       </c>
       <c r="D22">
-        <v>4.771104118602356</v>
+        <v>2.182111596490276</v>
       </c>
       <c r="E22">
-        <v>11.15097728498639</v>
+        <v>4.67209885970539</v>
       </c>
       <c r="F22">
-        <v>29.99432595585874</v>
+        <v>36.73256761511301</v>
       </c>
       <c r="G22">
-        <v>3.614512349855745</v>
+        <v>1.988358021258616</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>25.90964173994733</v>
+        <v>26.56572250518506</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.763131625288878</v>
+        <v>3.980426583031835</v>
       </c>
       <c r="M22">
-        <v>27.26348539453592</v>
+        <v>39.35238580062617</v>
       </c>
       <c r="N22">
-        <v>18.94349669364409</v>
+        <v>23.70217472782458</v>
       </c>
       <c r="O22">
-        <v>25.81550220148414</v>
+        <v>28.35965862266673</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.888944996140378</v>
+        <v>4.515187902512674</v>
       </c>
       <c r="D23">
-        <v>4.777167117680089</v>
+        <v>2.210232294404382</v>
       </c>
       <c r="E23">
-        <v>11.1787010510516</v>
+        <v>4.759551635696008</v>
       </c>
       <c r="F23">
-        <v>29.84416413475932</v>
+        <v>35.98849757156374</v>
       </c>
       <c r="G23">
-        <v>3.61571795627452</v>
+        <v>1.992119589619001</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>25.84446652150768</v>
+        <v>26.07638906252199</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.77991664990367</v>
+        <v>4.037361465934007</v>
       </c>
       <c r="M23">
-        <v>26.96937776498636</v>
+        <v>38.63156408711571</v>
       </c>
       <c r="N23">
-        <v>18.81508842305514</v>
+        <v>23.36683666493691</v>
       </c>
       <c r="O23">
-        <v>25.72872151920502</v>
+        <v>27.77442924334544</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.951593390345449</v>
+        <v>4.599924072401739</v>
       </c>
       <c r="D24">
-        <v>4.800753570666223</v>
+        <v>2.315462379056638</v>
       </c>
       <c r="E24">
-        <v>11.28729436977545</v>
+        <v>5.096131260355889</v>
       </c>
       <c r="F24">
-        <v>29.28510408562004</v>
+        <v>33.16264606425651</v>
       </c>
       <c r="G24">
-        <v>3.620460145967725</v>
+        <v>2.006473180974005</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25.60978357299923</v>
+        <v>24.32942982181303</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.845610999472575</v>
+        <v>4.254301916451299</v>
       </c>
       <c r="M24">
-        <v>25.82473756849567</v>
+        <v>35.78021364325977</v>
       </c>
       <c r="N24">
-        <v>18.32327912899035</v>
+        <v>22.05811771916358</v>
       </c>
       <c r="O24">
-        <v>25.41099214046183</v>
+        <v>25.72247196626992</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.025234056847825</v>
+        <v>4.713992277140093</v>
       </c>
       <c r="D25">
-        <v>4.827543176061017</v>
+        <v>2.427358955314899</v>
       </c>
       <c r="E25">
-        <v>11.41215393148494</v>
+        <v>5.470504649139246</v>
       </c>
       <c r="F25">
-        <v>28.70583468650284</v>
+        <v>30.20839222985101</v>
       </c>
       <c r="G25">
-        <v>3.625954771963517</v>
+        <v>2.022278791178711</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>25.38348382966527</v>
+        <v>22.42905940215454</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.921043200693182</v>
+        <v>4.492180083000753</v>
       </c>
       <c r="M25">
-        <v>24.52995853255413</v>
+        <v>32.44017426978044</v>
       </c>
       <c r="N25">
-        <v>17.78378384659649</v>
+        <v>20.56801930844712</v>
       </c>
       <c r="O25">
-        <v>25.0930518843957</v>
+        <v>23.59969139460943</v>
       </c>
     </row>
   </sheetData>
